--- a/StudentData/Tutorials/Unit4/4.1.1/banking_transactions_systematic_sample.xlsx
+++ b/StudentData/Tutorials/Unit4/4.1.1/banking_transactions_systematic_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Unit 3\Tutorial 3.3.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Tutorials/Unit4/4.1.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{7D94F8DE-38A2-4BF3-BFD6-8EAB143DB24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F38E45E-0C1A-447D-8179-59DC0FF44FCE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{5210B914-FBEE-40F5-8619-25D4FB38DE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{AB2BA1DA-943B-4A05-868D-EBB45B42B0BB}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{AB2BA1DA-943B-4A05-868D-EBB45B42B0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="static data" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Transaction_ID</t>
   </si>
@@ -49,24 +49,12 @@
   <si>
     <t>Account Number</t>
   </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total number </t>
-  </si>
-  <si>
-    <t>desired sample size</t>
-  </si>
-  <si>
-    <t>interval 20</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,21 +420,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8C7F7E-77C3-4289-845E-AE5C2B7B6383}">
-  <dimension ref="A1:I501"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.53515625" customWidth="1"/>
+    <col min="2" max="2" width="16.53515625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.53515625" customWidth="1"/>
+    <col min="7" max="7" width="17.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -474,7 +462,7 @@
         <v>450503</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -488,7 +476,7 @@
         <v>134857</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -502,7 +490,7 @@
         <v>398502</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -515,17 +503,8 @@
       <c r="D5">
         <v>144516</v>
       </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -538,17 +517,8 @@
       <c r="D6">
         <v>412271</v>
       </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6">
-        <v>25</v>
-      </c>
-      <c r="I6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -562,7 +532,7 @@
         <v>255099</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -575,11 +545,8 @@
       <c r="D8">
         <v>141034</v>
       </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -593,7 +560,7 @@
         <v>324565</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -607,7 +574,7 @@
         <v>162401</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -621,7 +588,7 @@
         <v>187588</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -635,7 +602,7 @@
         <v>192317</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -649,7 +616,7 @@
         <v>208726</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -663,7 +630,7 @@
         <v>452846</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -677,7 +644,7 @@
         <v>305616</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -691,7 +658,7 @@
         <v>421653</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -705,7 +672,7 @@
         <v>272094</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -719,7 +686,7 @@
         <v>142255</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -733,7 +700,7 @@
         <v>367567</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -747,7 +714,7 @@
         <v>333131</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -761,7 +728,7 @@
         <v>165961</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -775,7 +742,7 @@
         <v>344401</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -789,7 +756,7 @@
         <v>169629</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -803,7 +770,7 @@
         <v>211894</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -817,7 +784,7 @@
         <v>148678</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -831,7 +798,7 @@
         <v>231803</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -845,7 +812,7 @@
         <v>177635</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -859,7 +826,7 @@
         <v>315173</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -873,7 +840,7 @@
         <v>169028</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -887,7 +854,7 @@
         <v>125557</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -901,7 +868,7 @@
         <v>342970</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -915,7 +882,7 @@
         <v>127113</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -929,7 +896,7 @@
         <v>370023</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -943,7 +910,7 @@
         <v>169935</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -957,7 +924,7 @@
         <v>405869</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -971,7 +938,7 @@
         <v>149729</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -985,7 +952,7 @@
         <v>169322</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -999,7 +966,7 @@
         <v>336784</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1013,7 +980,7 @@
         <v>418213</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1027,7 +994,7 @@
         <v>163902</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1041,7 +1008,7 @@
         <v>136003</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1055,7 +1022,7 @@
         <v>246318</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1069,7 +1036,7 @@
         <v>255018</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1083,7 +1050,7 @@
         <v>201530</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1097,7 +1064,7 @@
         <v>227669</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1111,7 +1078,7 @@
         <v>278543</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1125,7 +1092,7 @@
         <v>180942</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1139,7 +1106,7 @@
         <v>401003</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1153,7 +1120,7 @@
         <v>453973</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1167,7 +1134,7 @@
         <v>132290</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1181,7 +1148,7 @@
         <v>149897</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1195,7 +1162,7 @@
         <v>141196</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1209,7 +1176,7 @@
         <v>279532</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1223,7 +1190,7 @@
         <v>168804</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1237,7 +1204,7 @@
         <v>136761</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1251,7 +1218,7 @@
         <v>278555</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1265,7 +1232,7 @@
         <v>313537</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1279,7 +1246,7 @@
         <v>147360</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1293,7 +1260,7 @@
         <v>289723</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1307,7 +1274,7 @@
         <v>397409</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1321,7 +1288,7 @@
         <v>299375</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1335,7 +1302,7 @@
         <v>376031</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1349,7 +1316,7 @@
         <v>348110</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1363,7 +1330,7 @@
         <v>437059</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1377,7 +1344,7 @@
         <v>306871</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1391,7 +1358,7 @@
         <v>337160</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1405,7 +1372,7 @@
         <v>365082</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1419,7 +1386,7 @@
         <v>175059</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1433,7 +1400,7 @@
         <v>220787</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1447,7 +1414,7 @@
         <v>227533</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1461,7 +1428,7 @@
         <v>135729</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1475,7 +1442,7 @@
         <v>354536</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1489,7 +1456,7 @@
         <v>340419</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1503,7 +1470,7 @@
         <v>330648</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1517,7 +1484,7 @@
         <v>295939</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1531,7 +1498,7 @@
         <v>243976</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1545,7 +1512,7 @@
         <v>152477</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1559,7 +1526,7 @@
         <v>181840</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1573,7 +1540,7 @@
         <v>250899</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1587,7 +1554,7 @@
         <v>174501</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1601,7 +1568,7 @@
         <v>394926</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1615,7 +1582,7 @@
         <v>244858</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1629,7 +1596,7 @@
         <v>393646</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1643,7 +1610,7 @@
         <v>432054</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1657,7 +1624,7 @@
         <v>151202</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1671,7 +1638,7 @@
         <v>143813</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1685,7 +1652,7 @@
         <v>304041</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1699,7 +1666,7 @@
         <v>326126</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1713,7 +1680,7 @@
         <v>143742</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1727,7 +1694,7 @@
         <v>231492</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1741,7 +1708,7 @@
         <v>372452</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1755,7 +1722,7 @@
         <v>389760</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1769,7 +1736,7 @@
         <v>238030</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1783,7 +1750,7 @@
         <v>238109</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1797,7 +1764,7 @@
         <v>162302</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1811,7 +1778,7 @@
         <v>300328</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1825,7 +1792,7 @@
         <v>294732</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1839,7 +1806,7 @@
         <v>214597</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1853,7 +1820,7 @@
         <v>199689</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1867,7 +1834,7 @@
         <v>237330</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1881,7 +1848,7 @@
         <v>351712</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1895,7 +1862,7 @@
         <v>285881</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -1909,7 +1876,7 @@
         <v>153865</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -1923,7 +1890,7 @@
         <v>135284</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -1937,7 +1904,7 @@
         <v>332181</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -1951,7 +1918,7 @@
         <v>268706</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -1965,7 +1932,7 @@
         <v>271168</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -1979,7 +1946,7 @@
         <v>221135</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -1993,7 +1960,7 @@
         <v>248371</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -2007,7 +1974,7 @@
         <v>174240</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -2021,7 +1988,7 @@
         <v>220010</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2035,7 +2002,7 @@
         <v>166993</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2049,7 +2016,7 @@
         <v>334960</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -2063,7 +2030,7 @@
         <v>203998</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2077,7 +2044,7 @@
         <v>166879</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2091,7 +2058,7 @@
         <v>162569</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2105,7 +2072,7 @@
         <v>387728</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2119,7 +2086,7 @@
         <v>456974</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2133,7 +2100,7 @@
         <v>253614</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2147,7 +2114,7 @@
         <v>220624</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2161,7 +2128,7 @@
         <v>193230</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2175,7 +2142,7 @@
         <v>148495</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2189,7 +2156,7 @@
         <v>309450</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2203,7 +2170,7 @@
         <v>170266</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2217,7 +2184,7 @@
         <v>149659</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2231,7 +2198,7 @@
         <v>396741</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2245,7 +2212,7 @@
         <v>261121</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2259,7 +2226,7 @@
         <v>182477</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2273,7 +2240,7 @@
         <v>204222</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2287,7 +2254,7 @@
         <v>143881</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2301,7 +2268,7 @@
         <v>130225</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2315,7 +2282,7 @@
         <v>400556</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -2329,7 +2296,7 @@
         <v>218015</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2343,7 +2310,7 @@
         <v>216437</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2357,7 +2324,7 @@
         <v>445439</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2371,7 +2338,7 @@
         <v>263506</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2385,7 +2352,7 @@
         <v>279794</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2399,7 +2366,7 @@
         <v>342286</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2413,7 +2380,7 @@
         <v>443982</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -2427,7 +2394,7 @@
         <v>147890</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2441,7 +2408,7 @@
         <v>271402</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2455,7 +2422,7 @@
         <v>325462</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -2469,7 +2436,7 @@
         <v>219446</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2483,7 +2450,7 @@
         <v>266997</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2497,7 +2464,7 @@
         <v>183611</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -2511,7 +2478,7 @@
         <v>322664</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2525,7 +2492,7 @@
         <v>218849</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -2539,7 +2506,7 @@
         <v>175275</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -2553,7 +2520,7 @@
         <v>446760</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -2567,7 +2534,7 @@
         <v>204524</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -2581,7 +2548,7 @@
         <v>229495</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -2595,7 +2562,7 @@
         <v>369981</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -2609,7 +2576,7 @@
         <v>317704</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -2623,7 +2590,7 @@
         <v>441693</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
@@ -2637,7 +2604,7 @@
         <v>152460</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
@@ -2651,7 +2618,7 @@
         <v>382776</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
@@ -2665,7 +2632,7 @@
         <v>395518</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
@@ -2679,7 +2646,7 @@
         <v>154308</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
@@ -2693,7 +2660,7 @@
         <v>305606</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
@@ -2707,7 +2674,7 @@
         <v>161701</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
@@ -2721,7 +2688,7 @@
         <v>339608</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
@@ -2735,7 +2702,7 @@
         <v>229971</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
@@ -2749,7 +2716,7 @@
         <v>172238</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
@@ -2763,7 +2730,7 @@
         <v>252564</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
@@ -2777,7 +2744,7 @@
         <v>162640</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
@@ -2791,7 +2758,7 @@
         <v>403403</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
@@ -2805,7 +2772,7 @@
         <v>156751</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -2819,7 +2786,7 @@
         <v>305923</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
@@ -2833,7 +2800,7 @@
         <v>378314</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
@@ -2847,7 +2814,7 @@
         <v>162421</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
@@ -2861,7 +2828,7 @@
         <v>422753</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
@@ -2875,7 +2842,7 @@
         <v>271619</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
@@ -2889,7 +2856,7 @@
         <v>274858</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
@@ -2903,7 +2870,7 @@
         <v>452914</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>174</v>
       </c>
@@ -2917,7 +2884,7 @@
         <v>314709</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>175</v>
       </c>
@@ -2931,7 +2898,7 @@
         <v>145228</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
@@ -2945,7 +2912,7 @@
         <v>171725</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
@@ -2959,7 +2926,7 @@
         <v>422809</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
@@ -2973,7 +2940,7 @@
         <v>380013</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
@@ -2987,7 +2954,7 @@
         <v>336050</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
@@ -3001,7 +2968,7 @@
         <v>228660</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
@@ -3015,7 +2982,7 @@
         <v>133666</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
@@ -3029,7 +2996,7 @@
         <v>224108</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
@@ -3043,7 +3010,7 @@
         <v>295721</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
@@ -3057,7 +3024,7 @@
         <v>400796</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
@@ -3071,7 +3038,7 @@
         <v>190674</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
@@ -3085,7 +3052,7 @@
         <v>367631</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
@@ -3099,7 +3066,7 @@
         <v>426229</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
@@ -3113,7 +3080,7 @@
         <v>157697</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
@@ -3127,7 +3094,7 @@
         <v>434577</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
@@ -3141,7 +3108,7 @@
         <v>210541</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
@@ -3155,7 +3122,7 @@
         <v>227171</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
@@ -3169,7 +3136,7 @@
         <v>374788</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
@@ -3183,7 +3150,7 @@
         <v>206383</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
@@ -3197,7 +3164,7 @@
         <v>131458</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
@@ -3211,7 +3178,7 @@
         <v>145525</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
@@ -3225,7 +3192,7 @@
         <v>325047</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
@@ -3239,7 +3206,7 @@
         <v>164835</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
@@ -3253,7 +3220,7 @@
         <v>448123</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
@@ -3267,7 +3234,7 @@
         <v>129457</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
@@ -3281,7 +3248,7 @@
         <v>262127</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
@@ -3295,7 +3262,7 @@
         <v>289331</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>202</v>
       </c>
@@ -3309,7 +3276,7 @@
         <v>160736</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
@@ -3323,7 +3290,7 @@
         <v>157761</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>204</v>
       </c>
@@ -3337,7 +3304,7 @@
         <v>214313</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>205</v>
       </c>
@@ -3351,7 +3318,7 @@
         <v>294413</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>206</v>
       </c>
@@ -3365,7 +3332,7 @@
         <v>327600</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>207</v>
       </c>
@@ -3379,7 +3346,7 @@
         <v>423136</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
@@ -3393,7 +3360,7 @@
         <v>316484</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
@@ -3407,7 +3374,7 @@
         <v>239610</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>210</v>
       </c>
@@ -3421,7 +3388,7 @@
         <v>202974</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>211</v>
       </c>
@@ -3435,7 +3402,7 @@
         <v>220375</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>212</v>
       </c>
@@ -3449,7 +3416,7 @@
         <v>164937</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>213</v>
       </c>
@@ -3463,7 +3430,7 @@
         <v>213189</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>214</v>
       </c>
@@ -3477,7 +3444,7 @@
         <v>133528</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>215</v>
       </c>
@@ -3491,7 +3458,7 @@
         <v>380451</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>216</v>
       </c>
@@ -3505,7 +3472,7 @@
         <v>455024</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>217</v>
       </c>
@@ -3519,7 +3486,7 @@
         <v>240415</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>218</v>
       </c>
@@ -3533,7 +3500,7 @@
         <v>136997</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>219</v>
       </c>
@@ -3547,7 +3514,7 @@
         <v>164837</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>220</v>
       </c>
@@ -3561,7 +3528,7 @@
         <v>441641</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>221</v>
       </c>
@@ -3575,7 +3542,7 @@
         <v>396663</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>222</v>
       </c>
@@ -3589,7 +3556,7 @@
         <v>291251</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>223</v>
       </c>
@@ -3603,7 +3570,7 @@
         <v>352146</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>224</v>
       </c>
@@ -3617,7 +3584,7 @@
         <v>264452</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>225</v>
       </c>
@@ -3631,7 +3598,7 @@
         <v>352914</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>226</v>
       </c>
@@ -3645,7 +3612,7 @@
         <v>432251</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>227</v>
       </c>
@@ -3659,7 +3626,7 @@
         <v>255896</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>228</v>
       </c>
@@ -3673,7 +3640,7 @@
         <v>283876</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>229</v>
       </c>
@@ -3687,7 +3654,7 @@
         <v>223918</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>230</v>
       </c>
@@ -3701,7 +3668,7 @@
         <v>210342</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>231</v>
       </c>
@@ -3715,7 +3682,7 @@
         <v>227840</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>232</v>
       </c>
@@ -3729,7 +3696,7 @@
         <v>274911</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>233</v>
       </c>
@@ -3743,7 +3710,7 @@
         <v>215886</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>234</v>
       </c>
@@ -3757,7 +3724,7 @@
         <v>154744</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>235</v>
       </c>
@@ -3771,7 +3738,7 @@
         <v>340199</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>236</v>
       </c>
@@ -3785,7 +3752,7 @@
         <v>296090</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>237</v>
       </c>
@@ -3799,7 +3766,7 @@
         <v>207178</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>238</v>
       </c>
@@ -3813,7 +3780,7 @@
         <v>181680</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>239</v>
       </c>
@@ -3827,7 +3794,7 @@
         <v>231266</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>240</v>
       </c>
@@ -3841,7 +3808,7 @@
         <v>283696</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>241</v>
       </c>
@@ -3855,7 +3822,7 @@
         <v>170832</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>242</v>
       </c>
@@ -3869,7 +3836,7 @@
         <v>436003</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>243</v>
       </c>
@@ -3883,7 +3850,7 @@
         <v>420846</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>244</v>
       </c>
@@ -3897,7 +3864,7 @@
         <v>449887</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>245</v>
       </c>
@@ -3911,7 +3878,7 @@
         <v>296667</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>246</v>
       </c>
@@ -3925,7 +3892,7 @@
         <v>247089</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>247</v>
       </c>
@@ -3939,7 +3906,7 @@
         <v>351417</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>248</v>
       </c>
@@ -3953,7 +3920,7 @@
         <v>352680</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>249</v>
       </c>
@@ -3967,7 +3934,7 @@
         <v>408554</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>250</v>
       </c>
@@ -3981,7 +3948,7 @@
         <v>258403</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>251</v>
       </c>
@@ -3995,7 +3962,7 @@
         <v>360603</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>252</v>
       </c>
@@ -4009,7 +3976,7 @@
         <v>155371</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>253</v>
       </c>
@@ -4023,7 +3990,7 @@
         <v>260672</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>254</v>
       </c>
@@ -4037,7 +4004,7 @@
         <v>358171</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>255</v>
       </c>
@@ -4051,7 +4018,7 @@
         <v>179519</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>256</v>
       </c>
@@ -4065,7 +4032,7 @@
         <v>413825</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>257</v>
       </c>
@@ -4079,7 +4046,7 @@
         <v>197614</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>258</v>
       </c>
@@ -4093,7 +4060,7 @@
         <v>124250</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>259</v>
       </c>
@@ -4107,7 +4074,7 @@
         <v>242086</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>260</v>
       </c>
@@ -4121,7 +4088,7 @@
         <v>302868</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>261</v>
       </c>
@@ -4135,7 +4102,7 @@
         <v>374921</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>262</v>
       </c>
@@ -4149,7 +4116,7 @@
         <v>312994</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>263</v>
       </c>
@@ -4163,7 +4130,7 @@
         <v>301049</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>264</v>
       </c>
@@ -4177,7 +4144,7 @@
         <v>240069</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>265</v>
       </c>
@@ -4191,7 +4158,7 @@
         <v>238786</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>266</v>
       </c>
@@ -4205,7 +4172,7 @@
         <v>365369</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>267</v>
       </c>
@@ -4219,7 +4186,7 @@
         <v>318504</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>268</v>
       </c>
@@ -4233,7 +4200,7 @@
         <v>451548</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>269</v>
       </c>
@@ -4247,7 +4214,7 @@
         <v>238343</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>270</v>
       </c>
@@ -4261,7 +4228,7 @@
         <v>181052</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>271</v>
       </c>
@@ -4275,7 +4242,7 @@
         <v>402553</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>272</v>
       </c>
@@ -4289,7 +4256,7 @@
         <v>289000</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>273</v>
       </c>
@@ -4303,7 +4270,7 @@
         <v>149934</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>274</v>
       </c>
@@ -4317,7 +4284,7 @@
         <v>163219</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>275</v>
       </c>
@@ -4331,7 +4298,7 @@
         <v>294551</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>276</v>
       </c>
@@ -4345,7 +4312,7 @@
         <v>448477</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>277</v>
       </c>
@@ -4359,7 +4326,7 @@
         <v>357852</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>278</v>
       </c>
@@ -4373,7 +4340,7 @@
         <v>448795</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>279</v>
       </c>
@@ -4387,7 +4354,7 @@
         <v>289678</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>280</v>
       </c>
@@ -4401,7 +4368,7 @@
         <v>154241</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>281</v>
       </c>
@@ -4415,7 +4382,7 @@
         <v>294189</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>282</v>
       </c>
@@ -4429,7 +4396,7 @@
         <v>234992</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>283</v>
       </c>
@@ -4443,7 +4410,7 @@
         <v>235533</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>284</v>
       </c>
@@ -4457,7 +4424,7 @@
         <v>238509</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>285</v>
       </c>
@@ -4471,7 +4438,7 @@
         <v>230759</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>286</v>
       </c>
@@ -4485,7 +4452,7 @@
         <v>338501</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>287</v>
       </c>
@@ -4499,7 +4466,7 @@
         <v>295677</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>288</v>
       </c>
@@ -4513,7 +4480,7 @@
         <v>272626</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>289</v>
       </c>
@@ -4527,7 +4494,7 @@
         <v>413768</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>290</v>
       </c>
@@ -4541,7 +4508,7 @@
         <v>178496</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>291</v>
       </c>
@@ -4555,7 +4522,7 @@
         <v>369725</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>292</v>
       </c>
@@ -4569,7 +4536,7 @@
         <v>299418</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>293</v>
       </c>
@@ -4583,7 +4550,7 @@
         <v>277238</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>294</v>
       </c>
@@ -4597,7 +4564,7 @@
         <v>286709</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>295</v>
       </c>
@@ -4611,7 +4578,7 @@
         <v>291880</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>296</v>
       </c>
@@ -4625,7 +4592,7 @@
         <v>177134</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>297</v>
       </c>
@@ -4639,7 +4606,7 @@
         <v>176606</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>298</v>
       </c>
@@ -4653,7 +4620,7 @@
         <v>167327</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>299</v>
       </c>
@@ -4667,7 +4634,7 @@
         <v>162845</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>300</v>
       </c>
@@ -4681,7 +4648,7 @@
         <v>312729</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>301</v>
       </c>
@@ -4695,7 +4662,7 @@
         <v>420216</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>302</v>
       </c>
@@ -4709,7 +4676,7 @@
         <v>171493</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>303</v>
       </c>
@@ -4723,7 +4690,7 @@
         <v>211932</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>304</v>
       </c>
@@ -4737,7 +4704,7 @@
         <v>208652</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>305</v>
       </c>
@@ -4751,7 +4718,7 @@
         <v>336873</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>306</v>
       </c>
@@ -4765,7 +4732,7 @@
         <v>238173</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>307</v>
       </c>
@@ -4779,7 +4746,7 @@
         <v>356617</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>308</v>
       </c>
@@ -4793,7 +4760,7 @@
         <v>321997</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>309</v>
       </c>
@@ -4807,7 +4774,7 @@
         <v>280073</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>310</v>
       </c>
@@ -4821,7 +4788,7 @@
         <v>312599</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>311</v>
       </c>
@@ -4835,7 +4802,7 @@
         <v>239331</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>312</v>
       </c>
@@ -4849,7 +4816,7 @@
         <v>409502</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>313</v>
       </c>
@@ -4863,7 +4830,7 @@
         <v>143844</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>314</v>
       </c>
@@ -4877,7 +4844,7 @@
         <v>174436</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>315</v>
       </c>
@@ -4891,7 +4858,7 @@
         <v>298381</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>316</v>
       </c>
@@ -4905,7 +4872,7 @@
         <v>157254</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>317</v>
       </c>
@@ -4919,7 +4886,7 @@
         <v>392594</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>318</v>
       </c>
@@ -4933,7 +4900,7 @@
         <v>354579</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>319</v>
       </c>
@@ -4947,7 +4914,7 @@
         <v>158712</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>320</v>
       </c>
@@ -4961,7 +4928,7 @@
         <v>272007</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>321</v>
       </c>
@@ -4975,7 +4942,7 @@
         <v>336285</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>322</v>
       </c>
@@ -4989,7 +4956,7 @@
         <v>285419</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>323</v>
       </c>
@@ -5003,7 +4970,7 @@
         <v>159089</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>324</v>
       </c>
@@ -5017,7 +4984,7 @@
         <v>249479</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>325</v>
       </c>
@@ -5031,7 +4998,7 @@
         <v>299194</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>326</v>
       </c>
@@ -5045,7 +5012,7 @@
         <v>429932</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>327</v>
       </c>
@@ -5059,7 +5026,7 @@
         <v>355919</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>328</v>
       </c>
@@ -5073,7 +5040,7 @@
         <v>148684</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>329</v>
       </c>
@@ -5087,7 +5054,7 @@
         <v>138745</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>330</v>
       </c>
@@ -5101,7 +5068,7 @@
         <v>409384</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>331</v>
       </c>
@@ -5115,7 +5082,7 @@
         <v>454529</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>332</v>
       </c>
@@ -5129,7 +5096,7 @@
         <v>292174</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>333</v>
       </c>
@@ -5143,7 +5110,7 @@
         <v>188507</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>334</v>
       </c>
@@ -5157,7 +5124,7 @@
         <v>303195</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>335</v>
       </c>
@@ -5171,7 +5138,7 @@
         <v>344950</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>336</v>
       </c>
@@ -5185,7 +5152,7 @@
         <v>134169</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>337</v>
       </c>
@@ -5199,7 +5166,7 @@
         <v>394813</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>338</v>
       </c>
@@ -5213,7 +5180,7 @@
         <v>247627</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>339</v>
       </c>
@@ -5227,7 +5194,7 @@
         <v>401784</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>340</v>
       </c>
@@ -5241,7 +5208,7 @@
         <v>361569</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>341</v>
       </c>
@@ -5255,7 +5222,7 @@
         <v>360530</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>342</v>
       </c>
@@ -5269,7 +5236,7 @@
         <v>299963</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>343</v>
       </c>
@@ -5283,7 +5250,7 @@
         <v>147567</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>344</v>
       </c>
@@ -5297,7 +5264,7 @@
         <v>184383</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>345</v>
       </c>
@@ -5311,7 +5278,7 @@
         <v>270685</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>346</v>
       </c>
@@ -5325,7 +5292,7 @@
         <v>355145</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>347</v>
       </c>
@@ -5339,7 +5306,7 @@
         <v>440204</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>348</v>
       </c>
@@ -5353,7 +5320,7 @@
         <v>130077</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>349</v>
       </c>
@@ -5367,7 +5334,7 @@
         <v>376047</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>350</v>
       </c>
@@ -5381,7 +5348,7 @@
         <v>241595</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>351</v>
       </c>
@@ -5395,7 +5362,7 @@
         <v>455565</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>352</v>
       </c>
@@ -5409,7 +5376,7 @@
         <v>226191</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>353</v>
       </c>
@@ -5423,7 +5390,7 @@
         <v>248609</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>354</v>
       </c>
@@ -5437,7 +5404,7 @@
         <v>206064</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>355</v>
       </c>
@@ -5451,7 +5418,7 @@
         <v>225701</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>356</v>
       </c>
@@ -5465,7 +5432,7 @@
         <v>331686</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>357</v>
       </c>
@@ -5479,7 +5446,7 @@
         <v>325967</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>358</v>
       </c>
@@ -5493,7 +5460,7 @@
         <v>235767</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>359</v>
       </c>
@@ -5507,7 +5474,7 @@
         <v>302904</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>360</v>
       </c>
@@ -5521,7 +5488,7 @@
         <v>243592</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>361</v>
       </c>
@@ -5535,7 +5502,7 @@
         <v>327937</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>362</v>
       </c>
@@ -5549,7 +5516,7 @@
         <v>351804</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>363</v>
       </c>
@@ -5563,7 +5530,7 @@
         <v>239285</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>364</v>
       </c>
@@ -5577,7 +5544,7 @@
         <v>305106</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>365</v>
       </c>
@@ -5591,7 +5558,7 @@
         <v>425141</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>366</v>
       </c>
@@ -5605,7 +5572,7 @@
         <v>306885</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>367</v>
       </c>
@@ -5619,7 +5586,7 @@
         <v>293939</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>368</v>
       </c>
@@ -5633,7 +5600,7 @@
         <v>265094</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>369</v>
       </c>
@@ -5647,7 +5614,7 @@
         <v>446305</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>370</v>
       </c>
@@ -5661,7 +5628,7 @@
         <v>264071</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>371</v>
       </c>
@@ -5675,7 +5642,7 @@
         <v>348502</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>372</v>
       </c>
@@ -5689,7 +5656,7 @@
         <v>130010</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>373</v>
       </c>
@@ -5703,7 +5670,7 @@
         <v>353055</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>374</v>
       </c>
@@ -5717,7 +5684,7 @@
         <v>151001</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>375</v>
       </c>
@@ -5731,7 +5698,7 @@
         <v>134211</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>376</v>
       </c>
@@ -5745,7 +5712,7 @@
         <v>381477</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>377</v>
       </c>
@@ -5759,7 +5726,7 @@
         <v>227023</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>378</v>
       </c>
@@ -5773,7 +5740,7 @@
         <v>300349</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>379</v>
       </c>
@@ -5787,7 +5754,7 @@
         <v>262247</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>380</v>
       </c>
@@ -5801,7 +5768,7 @@
         <v>420317</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>381</v>
       </c>
@@ -5815,7 +5782,7 @@
         <v>357602</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>382</v>
       </c>
@@ -5829,7 +5796,7 @@
         <v>310849</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>383</v>
       </c>
@@ -5843,7 +5810,7 @@
         <v>234551</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>384</v>
       </c>
@@ -5857,7 +5824,7 @@
         <v>300028</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>385</v>
       </c>
@@ -5871,7 +5838,7 @@
         <v>125435</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>386</v>
       </c>
@@ -5885,7 +5852,7 @@
         <v>304815</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>387</v>
       </c>
@@ -5899,7 +5866,7 @@
         <v>203449</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>388</v>
       </c>
@@ -5913,7 +5880,7 @@
         <v>424061</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>389</v>
       </c>
@@ -5927,7 +5894,7 @@
         <v>369153</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>390</v>
       </c>
@@ -5941,7 +5908,7 @@
         <v>404096</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>391</v>
       </c>
@@ -5955,7 +5922,7 @@
         <v>238474</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>392</v>
       </c>
@@ -5969,7 +5936,7 @@
         <v>183888</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>393</v>
       </c>
@@ -5983,7 +5950,7 @@
         <v>338361</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>394</v>
       </c>
@@ -5997,7 +5964,7 @@
         <v>134493</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>395</v>
       </c>
@@ -6011,7 +5978,7 @@
         <v>454298</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>396</v>
       </c>
@@ -6025,7 +5992,7 @@
         <v>330142</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>397</v>
       </c>
@@ -6039,7 +6006,7 @@
         <v>383312</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>398</v>
       </c>
@@ -6053,7 +6020,7 @@
         <v>346059</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>399</v>
       </c>
@@ -6067,7 +6034,7 @@
         <v>212626</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>400</v>
       </c>
@@ -6081,7 +6048,7 @@
         <v>337169</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>401</v>
       </c>
@@ -6095,7 +6062,7 @@
         <v>147215</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>402</v>
       </c>
@@ -6109,7 +6076,7 @@
         <v>239303</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>403</v>
       </c>
@@ -6123,7 +6090,7 @@
         <v>413067</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>404</v>
       </c>
@@ -6137,7 +6104,7 @@
         <v>351794</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>405</v>
       </c>
@@ -6151,7 +6118,7 @@
         <v>285646</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>406</v>
       </c>
@@ -6165,7 +6132,7 @@
         <v>269238</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>407</v>
       </c>
@@ -6179,7 +6146,7 @@
         <v>272221</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>408</v>
       </c>
@@ -6193,7 +6160,7 @@
         <v>167737</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>409</v>
       </c>
@@ -6207,7 +6174,7 @@
         <v>150627</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>410</v>
       </c>
@@ -6221,7 +6188,7 @@
         <v>447571</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>411</v>
       </c>
@@ -6235,7 +6202,7 @@
         <v>189371</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>412</v>
       </c>
@@ -6249,7 +6216,7 @@
         <v>149320</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>413</v>
       </c>
@@ -6263,7 +6230,7 @@
         <v>327314</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>414</v>
       </c>
@@ -6277,7 +6244,7 @@
         <v>406749</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>415</v>
       </c>
@@ -6291,7 +6258,7 @@
         <v>310210</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>416</v>
       </c>
@@ -6305,7 +6272,7 @@
         <v>283428</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>417</v>
       </c>
@@ -6319,7 +6286,7 @@
         <v>291614</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>418</v>
       </c>
@@ -6333,7 +6300,7 @@
         <v>177169</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>419</v>
       </c>
@@ -6347,7 +6314,7 @@
         <v>377221</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>420</v>
       </c>
@@ -6361,7 +6328,7 @@
         <v>416448</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>421</v>
       </c>
@@ -6375,7 +6342,7 @@
         <v>282125</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>422</v>
       </c>
@@ -6389,7 +6356,7 @@
         <v>404337</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>423</v>
       </c>
@@ -6403,7 +6370,7 @@
         <v>143617</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>424</v>
       </c>
@@ -6417,7 +6384,7 @@
         <v>142002</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>425</v>
       </c>
@@ -6431,7 +6398,7 @@
         <v>246732</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>426</v>
       </c>
@@ -6445,7 +6412,7 @@
         <v>428451</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>427</v>
       </c>
@@ -6459,7 +6426,7 @@
         <v>154086</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>428</v>
       </c>
@@ -6473,7 +6440,7 @@
         <v>163698</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>429</v>
       </c>
@@ -6487,7 +6454,7 @@
         <v>337680</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>430</v>
       </c>
@@ -6501,7 +6468,7 @@
         <v>161925</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A432">
         <v>431</v>
       </c>
@@ -6515,7 +6482,7 @@
         <v>321848</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>432</v>
       </c>
@@ -6529,7 +6496,7 @@
         <v>251039</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A434">
         <v>433</v>
       </c>
@@ -6543,7 +6510,7 @@
         <v>362118</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>434</v>
       </c>
@@ -6557,7 +6524,7 @@
         <v>370032</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A436">
         <v>435</v>
       </c>
@@ -6571,7 +6538,7 @@
         <v>207469</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>436</v>
       </c>
@@ -6585,7 +6552,7 @@
         <v>443463</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A438">
         <v>437</v>
       </c>
@@ -6599,7 +6566,7 @@
         <v>159203</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>438</v>
       </c>
@@ -6613,7 +6580,7 @@
         <v>266509</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A440">
         <v>439</v>
       </c>
@@ -6627,7 +6594,7 @@
         <v>263971</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A441">
         <v>440</v>
       </c>
@@ -6641,7 +6608,7 @@
         <v>419534</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A442">
         <v>441</v>
       </c>
@@ -6655,7 +6622,7 @@
         <v>397171</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A443">
         <v>442</v>
       </c>
@@ -6669,7 +6636,7 @@
         <v>266600</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A444">
         <v>443</v>
       </c>
@@ -6683,7 +6650,7 @@
         <v>130193</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A445">
         <v>444</v>
       </c>
@@ -6697,7 +6664,7 @@
         <v>170303</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A446">
         <v>445</v>
       </c>
@@ -6711,7 +6678,7 @@
         <v>312841</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A447">
         <v>446</v>
       </c>
@@ -6725,7 +6692,7 @@
         <v>294950</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A448">
         <v>447</v>
       </c>
@@ -6739,7 +6706,7 @@
         <v>165862</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A449">
         <v>448</v>
       </c>
@@ -6753,7 +6720,7 @@
         <v>393647</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A450">
         <v>449</v>
       </c>
@@ -6767,7 +6734,7 @@
         <v>433881</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A451">
         <v>450</v>
       </c>
@@ -6781,7 +6748,7 @@
         <v>155967</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A452">
         <v>451</v>
       </c>
@@ -6795,7 +6762,7 @@
         <v>267254</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A453">
         <v>452</v>
       </c>
@@ -6809,7 +6776,7 @@
         <v>444153</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A454">
         <v>453</v>
       </c>
@@ -6823,7 +6790,7 @@
         <v>166276</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A455">
         <v>454</v>
       </c>
@@ -6837,7 +6804,7 @@
         <v>456344</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A456">
         <v>455</v>
       </c>
@@ -6851,7 +6818,7 @@
         <v>171295</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A457">
         <v>456</v>
       </c>
@@ -6865,7 +6832,7 @@
         <v>242063</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A458">
         <v>457</v>
       </c>
@@ -6879,7 +6846,7 @@
         <v>363867</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A459">
         <v>458</v>
       </c>
@@ -6893,7 +6860,7 @@
         <v>361452</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A460">
         <v>459</v>
       </c>
@@ -6907,7 +6874,7 @@
         <v>348760</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A461">
         <v>460</v>
       </c>
@@ -6921,7 +6888,7 @@
         <v>390195</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A462">
         <v>461</v>
       </c>
@@ -6935,7 +6902,7 @@
         <v>433366</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A463">
         <v>462</v>
       </c>
@@ -6949,7 +6916,7 @@
         <v>333500</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A464">
         <v>463</v>
       </c>
@@ -6963,7 +6930,7 @@
         <v>427409</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A465">
         <v>464</v>
       </c>
@@ -6977,7 +6944,7 @@
         <v>218788</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A466">
         <v>465</v>
       </c>
@@ -6991,7 +6958,7 @@
         <v>222748</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A467">
         <v>466</v>
       </c>
@@ -7005,7 +6972,7 @@
         <v>146638</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A468">
         <v>467</v>
       </c>
@@ -7019,7 +6986,7 @@
         <v>219445</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A469">
         <v>468</v>
       </c>
@@ -7033,7 +7000,7 @@
         <v>377286</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A470">
         <v>469</v>
       </c>
@@ -7047,7 +7014,7 @@
         <v>201060</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A471">
         <v>470</v>
       </c>
@@ -7061,7 +7028,7 @@
         <v>208389</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A472">
         <v>471</v>
       </c>
@@ -7075,7 +7042,7 @@
         <v>303987</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A473">
         <v>472</v>
       </c>
@@ -7089,7 +7056,7 @@
         <v>129587</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A474">
         <v>473</v>
       </c>
@@ -7103,7 +7070,7 @@
         <v>152376</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A475">
         <v>474</v>
       </c>
@@ -7117,7 +7084,7 @@
         <v>296189</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A476">
         <v>475</v>
       </c>
@@ -7131,7 +7098,7 @@
         <v>401302</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A477">
         <v>476</v>
       </c>
@@ -7145,7 +7112,7 @@
         <v>292319</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A478">
         <v>477</v>
       </c>
@@ -7159,7 +7126,7 @@
         <v>281008</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A479">
         <v>478</v>
       </c>
@@ -7173,7 +7140,7 @@
         <v>316745</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A480">
         <v>479</v>
       </c>
@@ -7187,7 +7154,7 @@
         <v>195312</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>480</v>
       </c>
@@ -7201,7 +7168,7 @@
         <v>232106</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A482">
         <v>481</v>
       </c>
@@ -7215,7 +7182,7 @@
         <v>152338</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>482</v>
       </c>
@@ -7229,7 +7196,7 @@
         <v>352865</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>483</v>
       </c>
@@ -7243,7 +7210,7 @@
         <v>195234</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>484</v>
       </c>
@@ -7257,7 +7224,7 @@
         <v>338778</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>485</v>
       </c>
@@ -7271,7 +7238,7 @@
         <v>359912</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>486</v>
       </c>
@@ -7285,7 +7252,7 @@
         <v>355583</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>487</v>
       </c>
@@ -7299,7 +7266,7 @@
         <v>126840</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>488</v>
       </c>
@@ -7313,7 +7280,7 @@
         <v>228938</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A490">
         <v>489</v>
       </c>
@@ -7327,7 +7294,7 @@
         <v>196329</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>490</v>
       </c>
@@ -7341,7 +7308,7 @@
         <v>132338</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A492">
         <v>491</v>
       </c>
@@ -7355,7 +7322,7 @@
         <v>352225</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>492</v>
       </c>
@@ -7369,7 +7336,7 @@
         <v>437039</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A494">
         <v>493</v>
       </c>
@@ -7383,7 +7350,7 @@
         <v>160019</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>494</v>
       </c>
@@ -7397,7 +7364,7 @@
         <v>208408</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A496">
         <v>495</v>
       </c>
@@ -7411,7 +7378,7 @@
         <v>407508</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A497">
         <v>496</v>
       </c>
@@ -7425,7 +7392,7 @@
         <v>265860</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>497</v>
       </c>
@@ -7439,7 +7406,7 @@
         <v>401390</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>498</v>
       </c>
@@ -7453,7 +7420,7 @@
         <v>157067</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>499</v>
       </c>
@@ -7467,7 +7434,7 @@
         <v>351074</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>500</v>
       </c>
@@ -7487,15 +7454,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
@@ -7507,6 +7465,15 @@
     <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7774,13 +7741,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C285A28-D95D-453B-A455-A99B8EF2D9AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94B595B2-3AD5-4FB8-AFF2-5126B077D4F2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94B595B2-3AD5-4FB8-AFF2-5126B077D4F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C285A28-D95D-453B-A455-A99B8EF2D9AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{937C3255-4A72-4A9C-A96D-4DE8DFA33EC9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{937C3255-4A72-4A9C-A96D-4DE8DFA33EC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>